--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_52.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,367 +488,400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1325187969924812</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.6, 12.54)]</t>
+          <t>[('0:00:20.665782', '0:00:29.640294')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.940000', '0:00:27.713000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09716599190283401</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'C']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.908231, 32.885827)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(52.304693, 57.401473)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000'), ('0:00:10.380000', '0:00:16.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:52.740000', '0:01:00.860000'), ('0:01:20.220000', '0:01:27.220000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.08, 79.12)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(73.26, 99.08)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2973856209150327</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:43.752292', '0:00:50.730362')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1441176470588235</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(48.42, 58.56)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.6, 5.12)]</t>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.564516129032258</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(38.58, 45.98)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.2, 42.24)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6153846153846154</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -852,277 +890,254 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.22, 5.78), (0.86, 7.72)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.98, 20.7), (10.56, 23.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09197651663405088</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(129.12, 131.12)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.61044, 45.427039)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1831501831501831</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.38, 19.18)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.12, 27.0)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1414473684210526</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Bb:maj', 'G:min'], ['C:min', 'F:maj', 'Bb:maj'], ['F:maj', 'Bb:maj', 'G:min'], ['Eb:maj', 'Bb/3', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'E:min'], ['A:min', 'D', 'G'], ['D', 'G', 'E:min'], ['G', 'D', 'E:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(49.16, 62.76), (62.76, 72.921), (67.802, 76.324), (83.141, 89.999)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.639639, 53.885807), (22.829118, 26.567531), (56.381952, 61.374243), (10.452882, 21.58685)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (8.46, 13.46), (43.34, 59.34), (0.24, 5.08)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.6, 28.92), (23.04, 26.52), (254.26, 257.98), (12.56, 17.2)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.0, 61.06), (129.38, 134.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(66.92, 68.18), (65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
